--- a/raw/result/全國投開票所一覽表/不分區立委/不分區立委-A05-6-得票數一覽表(嘉義縣).xlsx
+++ b/raw/result/全國投開票所一覽表/不分區立委/不分區立委-A05-6-得票數一覽表(嘉義縣).xlsx
@@ -4540,25 +4540,25 @@
         <v>84207.0</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>792.0</v>
+        <v>790.0</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>574.0</v>
+        <v>517.0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>54451.0</v>
+        <v>54509.0</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>295.0</v>
+        <v>292.0</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1419.0</v>
+        <v>1420.0</v>
       </c>
       <c r="R6" s="4" t="n">
         <v>375.0</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>1683.0</v>
+        <v>1686.0</v>
       </c>
       <c r="T6" s="4" t="n">
         <v>285836.0</v>
@@ -32677,25 +32677,25 @@
         <v>4213.0</v>
       </c>
       <c r="M345" s="4" t="n">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="N345" s="4" t="n">
-        <v>104.0</v>
+        <v>47.0</v>
       </c>
       <c r="O345" s="4" t="n">
-        <v>3315.0</v>
+        <v>3373.0</v>
       </c>
       <c r="P345" s="4" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="Q345" s="4" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="R345" s="4" t="n">
         <v>24.0</v>
       </c>
       <c r="S345" s="4" t="n">
-        <v>119.0</v>
+        <v>122.0</v>
       </c>
       <c r="T345" s="4" t="n">
         <v>18033.0</v>
@@ -34005,25 +34005,25 @@
         <v>70.0</v>
       </c>
       <c r="M361" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N361" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O361" s="4" t="n">
         <v>59.0</v>
       </c>
-      <c r="O361" s="4" t="n">
-        <v>1.0</v>
-      </c>
       <c r="P361" s="4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q361" s="4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="R361" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="S361" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T361" s="4" t="n">
         <v>340.0</v>
